--- a/Data/2020_11_17.xlsx
+++ b/Data/2020_11_17.xlsx
@@ -17,9 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
-  <si>
-    <t xml:space="preserve">Daten des Coronavirussituationsberichts, Stand 2020-11-16 08:00 Uhr</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+  <si>
+    <t xml:space="preserve">Daten des Coronavirussituationsberichts, Stand 2020-11-17 08:00 Uhr</t>
   </si>
   <si>
     <t xml:space="preserve">Quelle: BAG/MT</t>
@@ -301,127 +301,133 @@
     <t xml:space="preserve">Inzidenz Quarantäne nach Einreise aus Risikoland</t>
   </si>
   <si>
+    <t xml:space="preserve">2343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keine aktuellen Daten gemeldet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4970</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1530</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1277</t>
+  </si>
+  <si>
     <t xml:space="preserve">1660</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keine aktuellen Daten gemeldet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4970</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1530</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1277</t>
   </si>
   <si>
     <t xml:space="preserve">3253</t>
@@ -1747,10 +1753,10 @@
         <v>22420</v>
       </c>
       <c r="D48" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E48" t="n">
-        <v>3089</v>
+        <v>3090</v>
       </c>
       <c r="F48" t="n">
         <v>55</v>
@@ -1773,7 +1779,7 @@
         <v>50</v>
       </c>
       <c r="E49" t="n">
-        <v>3139</v>
+        <v>3140</v>
       </c>
       <c r="F49" t="n">
         <v>50</v>
@@ -1796,7 +1802,7 @@
         <v>71</v>
       </c>
       <c r="E50" t="n">
-        <v>3210</v>
+        <v>3211</v>
       </c>
       <c r="F50" t="n">
         <v>50</v>
@@ -1819,7 +1825,7 @@
         <v>57</v>
       </c>
       <c r="E51" t="n">
-        <v>3267</v>
+        <v>3268</v>
       </c>
       <c r="F51" t="n">
         <v>53</v>
@@ -1842,7 +1848,7 @@
         <v>59</v>
       </c>
       <c r="E52" t="n">
-        <v>3326</v>
+        <v>3327</v>
       </c>
       <c r="F52" t="n">
         <v>58</v>
@@ -1865,7 +1871,7 @@
         <v>57</v>
       </c>
       <c r="E53" t="n">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="F53" t="n">
         <v>44</v>
@@ -1888,7 +1894,7 @@
         <v>40</v>
       </c>
       <c r="E54" t="n">
-        <v>3423</v>
+        <v>3424</v>
       </c>
       <c r="F54" t="n">
         <v>50</v>
@@ -1911,13 +1917,13 @@
         <v>43</v>
       </c>
       <c r="E55" t="n">
-        <v>3466</v>
+        <v>3467</v>
       </c>
       <c r="F55" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G55" t="n">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="56">
@@ -1934,13 +1940,13 @@
         <v>32</v>
       </c>
       <c r="E56" t="n">
-        <v>3498</v>
+        <v>3499</v>
       </c>
       <c r="F56" t="n">
         <v>36</v>
       </c>
       <c r="G56" t="n">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="57">
@@ -1957,13 +1963,13 @@
         <v>27</v>
       </c>
       <c r="E57" t="n">
-        <v>3525</v>
+        <v>3526</v>
       </c>
       <c r="F57" t="n">
         <v>36</v>
       </c>
       <c r="G57" t="n">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="58">
@@ -1980,13 +1986,13 @@
         <v>52</v>
       </c>
       <c r="E58" t="n">
-        <v>3577</v>
+        <v>3578</v>
       </c>
       <c r="F58" t="n">
         <v>37</v>
       </c>
       <c r="G58" t="n">
-        <v>1165</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="59">
@@ -2003,13 +2009,13 @@
         <v>32</v>
       </c>
       <c r="E59" t="n">
-        <v>3609</v>
+        <v>3610</v>
       </c>
       <c r="F59" t="n">
         <v>37</v>
       </c>
       <c r="G59" t="n">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="60">
@@ -2026,13 +2032,13 @@
         <v>37</v>
       </c>
       <c r="E60" t="n">
-        <v>3646</v>
+        <v>3647</v>
       </c>
       <c r="F60" t="n">
         <v>38</v>
       </c>
       <c r="G60" t="n">
-        <v>1240</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="61">
@@ -2049,13 +2055,13 @@
         <v>32</v>
       </c>
       <c r="E61" t="n">
-        <v>3678</v>
+        <v>3679</v>
       </c>
       <c r="F61" t="n">
         <v>36</v>
       </c>
       <c r="G61" t="n">
-        <v>1276</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="62">
@@ -2072,13 +2078,13 @@
         <v>14</v>
       </c>
       <c r="E62" t="n">
-        <v>3692</v>
+        <v>3693</v>
       </c>
       <c r="F62" t="n">
         <v>32</v>
       </c>
       <c r="G62" t="n">
-        <v>1308</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="63">
@@ -2095,13 +2101,13 @@
         <v>23</v>
       </c>
       <c r="E63" t="n">
-        <v>3715</v>
+        <v>3716</v>
       </c>
       <c r="F63" t="n">
         <v>21</v>
       </c>
       <c r="G63" t="n">
-        <v>1329</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="64">
@@ -2118,13 +2124,13 @@
         <v>23</v>
       </c>
       <c r="E64" t="n">
-        <v>3738</v>
+        <v>3739</v>
       </c>
       <c r="F64" t="n">
         <v>37</v>
       </c>
       <c r="G64" t="n">
-        <v>1366</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="65">
@@ -2141,13 +2147,13 @@
         <v>18</v>
       </c>
       <c r="E65" t="n">
-        <v>3756</v>
+        <v>3757</v>
       </c>
       <c r="F65" t="n">
         <v>33</v>
       </c>
       <c r="G65" t="n">
-        <v>1399</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="66">
@@ -2164,13 +2170,13 @@
         <v>21</v>
       </c>
       <c r="E66" t="n">
-        <v>3777</v>
+        <v>3778</v>
       </c>
       <c r="F66" t="n">
         <v>26</v>
       </c>
       <c r="G66" t="n">
-        <v>1425</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="67">
@@ -2187,13 +2193,13 @@
         <v>9</v>
       </c>
       <c r="E67" t="n">
-        <v>3786</v>
+        <v>3787</v>
       </c>
       <c r="F67" t="n">
         <v>29</v>
       </c>
       <c r="G67" t="n">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="68">
@@ -2210,13 +2216,13 @@
         <v>13</v>
       </c>
       <c r="E68" t="n">
-        <v>3799</v>
+        <v>3800</v>
       </c>
       <c r="F68" t="n">
         <v>24</v>
       </c>
       <c r="G68" t="n">
-        <v>1478</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="69">
@@ -2233,13 +2239,13 @@
         <v>14</v>
       </c>
       <c r="E69" t="n">
-        <v>3813</v>
+        <v>3814</v>
       </c>
       <c r="F69" t="n">
         <v>24</v>
       </c>
       <c r="G69" t="n">
-        <v>1502</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="70">
@@ -2256,13 +2262,13 @@
         <v>6</v>
       </c>
       <c r="E70" t="n">
-        <v>3819</v>
+        <v>3820</v>
       </c>
       <c r="F70" t="n">
         <v>13</v>
       </c>
       <c r="G70" t="n">
-        <v>1515</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="71">
@@ -2279,13 +2285,13 @@
         <v>13</v>
       </c>
       <c r="E71" t="n">
-        <v>3832</v>
+        <v>3833</v>
       </c>
       <c r="F71" t="n">
         <v>23</v>
       </c>
       <c r="G71" t="n">
-        <v>1538</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="72">
@@ -2302,13 +2308,13 @@
         <v>14</v>
       </c>
       <c r="E72" t="n">
-        <v>3846</v>
+        <v>3847</v>
       </c>
       <c r="F72" t="n">
         <v>11</v>
       </c>
       <c r="G72" t="n">
-        <v>1549</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="73">
@@ -2325,13 +2331,13 @@
         <v>11</v>
       </c>
       <c r="E73" t="n">
-        <v>3857</v>
+        <v>3858</v>
       </c>
       <c r="F73" t="n">
         <v>10</v>
       </c>
       <c r="G73" t="n">
-        <v>1559</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="74">
@@ -2348,13 +2354,13 @@
         <v>4</v>
       </c>
       <c r="E74" t="n">
-        <v>3861</v>
+        <v>3862</v>
       </c>
       <c r="F74" t="n">
         <v>13</v>
       </c>
       <c r="G74" t="n">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="75">
@@ -2371,13 +2377,13 @@
         <v>7</v>
       </c>
       <c r="E75" t="n">
-        <v>3868</v>
+        <v>3869</v>
       </c>
       <c r="F75" t="n">
         <v>12</v>
       </c>
       <c r="G75" t="n">
-        <v>1584</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="76">
@@ -2394,13 +2400,13 @@
         <v>7</v>
       </c>
       <c r="E76" t="n">
-        <v>3875</v>
+        <v>3876</v>
       </c>
       <c r="F76" t="n">
         <v>9</v>
       </c>
       <c r="G76" t="n">
-        <v>1593</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="77">
@@ -2417,13 +2423,13 @@
         <v>7</v>
       </c>
       <c r="E77" t="n">
-        <v>3882</v>
+        <v>3883</v>
       </c>
       <c r="F77" t="n">
         <v>8</v>
       </c>
       <c r="G77" t="n">
-        <v>1601</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="78">
@@ -2440,13 +2446,13 @@
         <v>4</v>
       </c>
       <c r="E78" t="n">
-        <v>3886</v>
+        <v>3887</v>
       </c>
       <c r="F78" t="n">
         <v>9</v>
       </c>
       <c r="G78" t="n">
-        <v>1610</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="79">
@@ -2463,13 +2469,13 @@
         <v>6</v>
       </c>
       <c r="E79" t="n">
-        <v>3892</v>
+        <v>3893</v>
       </c>
       <c r="F79" t="n">
         <v>8</v>
       </c>
       <c r="G79" t="n">
-        <v>1618</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="80">
@@ -2486,13 +2492,13 @@
         <v>2</v>
       </c>
       <c r="E80" t="n">
-        <v>3894</v>
+        <v>3895</v>
       </c>
       <c r="F80" t="n">
         <v>4</v>
       </c>
       <c r="G80" t="n">
-        <v>1622</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="81">
@@ -2509,13 +2515,13 @@
         <v>7</v>
       </c>
       <c r="E81" t="n">
-        <v>3901</v>
+        <v>3902</v>
       </c>
       <c r="F81" t="n">
         <v>12</v>
       </c>
       <c r="G81" t="n">
-        <v>1634</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="82">
@@ -2532,13 +2538,13 @@
         <v>3</v>
       </c>
       <c r="E82" t="n">
-        <v>3904</v>
+        <v>3905</v>
       </c>
       <c r="F82" t="n">
         <v>7</v>
       </c>
       <c r="G82" t="n">
-        <v>1641</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="83">
@@ -2555,13 +2561,13 @@
         <v>2</v>
       </c>
       <c r="E83" t="n">
-        <v>3906</v>
+        <v>3907</v>
       </c>
       <c r="F83" t="n">
         <v>5</v>
       </c>
       <c r="G83" t="n">
-        <v>1646</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="84">
@@ -2578,13 +2584,13 @@
         <v>6</v>
       </c>
       <c r="E84" t="n">
-        <v>3912</v>
+        <v>3913</v>
       </c>
       <c r="F84" t="n">
         <v>7</v>
       </c>
       <c r="G84" t="n">
-        <v>1653</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="85">
@@ -2601,13 +2607,13 @@
         <v>5</v>
       </c>
       <c r="E85" t="n">
-        <v>3917</v>
+        <v>3918</v>
       </c>
       <c r="F85" t="n">
         <v>3</v>
       </c>
       <c r="G85" t="n">
-        <v>1656</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="86">
@@ -2624,13 +2630,13 @@
         <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>3918</v>
+        <v>3919</v>
       </c>
       <c r="F86" t="n">
         <v>1</v>
       </c>
       <c r="G86" t="n">
-        <v>1657</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="87">
@@ -2647,13 +2653,13 @@
         <v>5</v>
       </c>
       <c r="E87" t="n">
-        <v>3923</v>
+        <v>3924</v>
       </c>
       <c r="F87" t="n">
         <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>1658</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="88">
@@ -2670,13 +2676,13 @@
         <v>3</v>
       </c>
       <c r="E88" t="n">
-        <v>3926</v>
+        <v>3927</v>
       </c>
       <c r="F88" t="n">
         <v>2</v>
       </c>
       <c r="G88" t="n">
-        <v>1660</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="89">
@@ -2693,13 +2699,13 @@
         <v>3</v>
       </c>
       <c r="E89" t="n">
-        <v>3929</v>
+        <v>3930</v>
       </c>
       <c r="F89" t="n">
         <v>5</v>
       </c>
       <c r="G89" t="n">
-        <v>1665</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="90">
@@ -2716,13 +2722,13 @@
         <v>3</v>
       </c>
       <c r="E90" t="n">
-        <v>3932</v>
+        <v>3933</v>
       </c>
       <c r="F90" t="n">
         <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>1666</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="91">
@@ -2739,13 +2745,13 @@
         <v>5</v>
       </c>
       <c r="E91" t="n">
-        <v>3937</v>
+        <v>3938</v>
       </c>
       <c r="F91" t="n">
         <v>4</v>
       </c>
       <c r="G91" t="n">
-        <v>1670</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="92">
@@ -2762,13 +2768,13 @@
         <v>3</v>
       </c>
       <c r="E92" t="n">
-        <v>3940</v>
+        <v>3941</v>
       </c>
       <c r="F92" t="n">
         <v>3</v>
       </c>
       <c r="G92" t="n">
-        <v>1673</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="93">
@@ -2785,13 +2791,13 @@
         <v>2</v>
       </c>
       <c r="E93" t="n">
-        <v>3942</v>
+        <v>3943</v>
       </c>
       <c r="F93" t="n">
         <v>4</v>
       </c>
       <c r="G93" t="n">
-        <v>1677</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="94">
@@ -2808,13 +2814,13 @@
         <v>2</v>
       </c>
       <c r="E94" t="n">
-        <v>3944</v>
+        <v>3945</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>1677</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="95">
@@ -2831,13 +2837,13 @@
         <v>3</v>
       </c>
       <c r="E95" t="n">
-        <v>3947</v>
+        <v>3948</v>
       </c>
       <c r="F95" t="n">
         <v>5</v>
       </c>
       <c r="G95" t="n">
-        <v>1682</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="96">
@@ -2854,13 +2860,13 @@
         <v>4</v>
       </c>
       <c r="E96" t="n">
-        <v>3951</v>
+        <v>3952</v>
       </c>
       <c r="F96" t="n">
         <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>1683</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="97">
@@ -2877,13 +2883,13 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>3952</v>
+        <v>3953</v>
       </c>
       <c r="F97" t="n">
         <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="98">
@@ -2900,13 +2906,13 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>3952</v>
+        <v>3953</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="99">
@@ -2923,13 +2929,13 @@
         <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>3953</v>
+        <v>3954</v>
       </c>
       <c r="F99" t="n">
         <v>2</v>
       </c>
       <c r="G99" t="n">
-        <v>1686</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="100">
@@ -2946,13 +2952,13 @@
         <v>5</v>
       </c>
       <c r="E100" t="n">
-        <v>3958</v>
+        <v>3959</v>
       </c>
       <c r="F100" t="n">
         <v>2</v>
       </c>
       <c r="G100" t="n">
-        <v>1688</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="101">
@@ -2969,13 +2975,13 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>3958</v>
+        <v>3959</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>1688</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="102">
@@ -2992,13 +2998,13 @@
         <v>4</v>
       </c>
       <c r="E102" t="n">
-        <v>3962</v>
+        <v>3963</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>1688</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="103">
@@ -3015,13 +3021,13 @@
         <v>2</v>
       </c>
       <c r="E103" t="n">
-        <v>3964</v>
+        <v>3965</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>1688</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="104">
@@ -3038,13 +3044,13 @@
         <v>3</v>
       </c>
       <c r="E104" t="n">
-        <v>3967</v>
+        <v>3968</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>1688</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="105">
@@ -3061,13 +3067,13 @@
         <v>3</v>
       </c>
       <c r="E105" t="n">
-        <v>3970</v>
+        <v>3971</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>1688</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="106">
@@ -3084,13 +3090,13 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>3970</v>
+        <v>3971</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>1688</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="107">
@@ -3107,13 +3113,13 @@
         <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>3970</v>
+        <v>3971</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>1688</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="108">
@@ -3130,13 +3136,13 @@
         <v>2</v>
       </c>
       <c r="E108" t="n">
-        <v>3972</v>
+        <v>3973</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>1688</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="109">
@@ -3153,13 +3159,13 @@
         <v>3</v>
       </c>
       <c r="E109" t="n">
-        <v>3975</v>
+        <v>3976</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>1688</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="110">
@@ -3176,13 +3182,13 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>3975</v>
+        <v>3976</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>1688</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="111">
@@ -3199,13 +3205,13 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>3975</v>
+        <v>3976</v>
       </c>
       <c r="F111" t="n">
         <v>1</v>
       </c>
       <c r="G111" t="n">
-        <v>1689</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="112">
@@ -3222,13 +3228,13 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>3975</v>
+        <v>3976</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>1689</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="113">
@@ -3245,13 +3251,13 @@
         <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>3976</v>
+        <v>3977</v>
       </c>
       <c r="F113" t="n">
         <v>1</v>
       </c>
       <c r="G113" t="n">
-        <v>1690</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="114">
@@ -3268,13 +3274,13 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>3976</v>
+        <v>3977</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>1690</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="115">
@@ -3291,13 +3297,13 @@
         <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>3977</v>
+        <v>3978</v>
       </c>
       <c r="F115" t="n">
         <v>1</v>
       </c>
       <c r="G115" t="n">
-        <v>1691</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="116">
@@ -3314,13 +3320,13 @@
         <v>1</v>
       </c>
       <c r="E116" t="n">
-        <v>3978</v>
+        <v>3979</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>1691</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="117">
@@ -3337,13 +3343,13 @@
         <v>2</v>
       </c>
       <c r="E117" t="n">
-        <v>3980</v>
+        <v>3981</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>1691</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="118">
@@ -3360,13 +3366,13 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>3980</v>
+        <v>3981</v>
       </c>
       <c r="F118" t="n">
         <v>1</v>
       </c>
       <c r="G118" t="n">
-        <v>1692</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="119">
@@ -3383,13 +3389,13 @@
         <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>3981</v>
+        <v>3982</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>1692</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="120">
@@ -3406,13 +3412,13 @@
         <v>1</v>
       </c>
       <c r="E120" t="n">
-        <v>3982</v>
+        <v>3983</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>1692</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="121">
@@ -3429,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>3982</v>
+        <v>3983</v>
       </c>
       <c r="F121" t="n">
         <v>1</v>
       </c>
       <c r="G121" t="n">
-        <v>1693</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="122">
@@ -3452,13 +3458,13 @@
         <v>2</v>
       </c>
       <c r="E122" t="n">
-        <v>3984</v>
+        <v>3985</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>1693</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="123">
@@ -3475,13 +3481,13 @@
         <v>3</v>
       </c>
       <c r="E123" t="n">
-        <v>3987</v>
+        <v>3988</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>1693</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="124">
@@ -3495,16 +3501,16 @@
         <v>31289</v>
       </c>
       <c r="D124" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E124" t="n">
-        <v>3991</v>
+        <v>3993</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>1693</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="125">
@@ -3521,13 +3527,13 @@
         <v>6</v>
       </c>
       <c r="E125" t="n">
-        <v>3997</v>
+        <v>3999</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>1693</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="126">
@@ -3544,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>3997</v>
+        <v>3999</v>
       </c>
       <c r="F126" t="n">
         <v>1</v>
       </c>
       <c r="G126" t="n">
-        <v>1694</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="127">
@@ -3564,16 +3570,16 @@
         <v>31390</v>
       </c>
       <c r="D127" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E127" t="n">
-        <v>4001</v>
+        <v>4002</v>
       </c>
       <c r="F127" t="n">
         <v>1</v>
       </c>
       <c r="G127" t="n">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="128">
@@ -3590,13 +3596,13 @@
         <v>3</v>
       </c>
       <c r="E128" t="n">
-        <v>4004</v>
+        <v>4005</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="129">
@@ -3613,13 +3619,13 @@
         <v>4</v>
       </c>
       <c r="E129" t="n">
-        <v>4008</v>
+        <v>4009</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="130">
@@ -3636,13 +3642,13 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>4008</v>
+        <v>4009</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="131">
@@ -3659,13 +3665,13 @@
         <v>4</v>
       </c>
       <c r="E131" t="n">
-        <v>4012</v>
+        <v>4013</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="132">
@@ -3682,13 +3688,13 @@
         <v>1</v>
       </c>
       <c r="E132" t="n">
-        <v>4013</v>
+        <v>4014</v>
       </c>
       <c r="F132" t="n">
         <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="133">
@@ -3705,13 +3711,13 @@
         <v>1</v>
       </c>
       <c r="E133" t="n">
-        <v>4014</v>
+        <v>4015</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="134">
@@ -3728,13 +3734,13 @@
         <v>5</v>
       </c>
       <c r="E134" t="n">
-        <v>4019</v>
+        <v>4020</v>
       </c>
       <c r="F134" t="n">
         <v>1</v>
       </c>
       <c r="G134" t="n">
-        <v>1696</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="135">
@@ -3751,13 +3757,13 @@
         <v>8</v>
       </c>
       <c r="E135" t="n">
-        <v>4027</v>
+        <v>4028</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>1696</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="136">
@@ -3774,13 +3780,13 @@
         <v>6</v>
       </c>
       <c r="E136" t="n">
-        <v>4033</v>
+        <v>4034</v>
       </c>
       <c r="F136" t="n">
         <v>1</v>
       </c>
       <c r="G136" t="n">
-        <v>1697</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="137">
@@ -3797,13 +3803,13 @@
         <v>5</v>
       </c>
       <c r="E137" t="n">
-        <v>4038</v>
+        <v>4039</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>1697</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="138">
@@ -3820,13 +3826,13 @@
         <v>5</v>
       </c>
       <c r="E138" t="n">
-        <v>4043</v>
+        <v>4044</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>1697</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="139">
@@ -3843,13 +3849,13 @@
         <v>2</v>
       </c>
       <c r="E139" t="n">
-        <v>4045</v>
+        <v>4046</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>1697</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="140">
@@ -3866,13 +3872,13 @@
         <v>7</v>
       </c>
       <c r="E140" t="n">
-        <v>4052</v>
+        <v>4053</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>1697</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="141">
@@ -3889,13 +3895,13 @@
         <v>3</v>
       </c>
       <c r="E141" t="n">
-        <v>4055</v>
+        <v>4056</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>1697</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="142">
@@ -3912,13 +3918,13 @@
         <v>7</v>
       </c>
       <c r="E142" t="n">
-        <v>4062</v>
+        <v>4063</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>1697</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="143">
@@ -3935,13 +3941,13 @@
         <v>3</v>
       </c>
       <c r="E143" t="n">
-        <v>4065</v>
+        <v>4066</v>
       </c>
       <c r="F143" t="n">
         <v>2</v>
       </c>
       <c r="G143" t="n">
-        <v>1699</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="144">
@@ -3958,13 +3964,13 @@
         <v>11</v>
       </c>
       <c r="E144" t="n">
-        <v>4076</v>
+        <v>4077</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>1699</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="145">
@@ -3981,13 +3987,13 @@
         <v>7</v>
       </c>
       <c r="E145" t="n">
-        <v>4083</v>
+        <v>4084</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>1699</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="146">
@@ -4004,13 +4010,13 @@
         <v>10</v>
       </c>
       <c r="E146" t="n">
-        <v>4093</v>
+        <v>4094</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>1699</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="147">
@@ -4027,13 +4033,13 @@
         <v>12</v>
       </c>
       <c r="E147" t="n">
-        <v>4105</v>
+        <v>4106</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>1699</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="148">
@@ -4050,13 +4056,13 @@
         <v>5</v>
       </c>
       <c r="E148" t="n">
-        <v>4110</v>
+        <v>4111</v>
       </c>
       <c r="F148" t="n">
         <v>1</v>
       </c>
       <c r="G148" t="n">
-        <v>1700</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="149">
@@ -4073,13 +4079,13 @@
         <v>5</v>
       </c>
       <c r="E149" t="n">
-        <v>4115</v>
+        <v>4116</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>1700</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="150">
@@ -4096,13 +4102,13 @@
         <v>7</v>
       </c>
       <c r="E150" t="n">
-        <v>4122</v>
+        <v>4123</v>
       </c>
       <c r="F150" t="n">
         <v>1</v>
       </c>
       <c r="G150" t="n">
-        <v>1701</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="151">
@@ -4119,13 +4125,13 @@
         <v>5</v>
       </c>
       <c r="E151" t="n">
-        <v>4127</v>
+        <v>4128</v>
       </c>
       <c r="F151" t="n">
         <v>1</v>
       </c>
       <c r="G151" t="n">
-        <v>1702</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="152">
@@ -4142,13 +4148,13 @@
         <v>6</v>
       </c>
       <c r="E152" t="n">
-        <v>4133</v>
+        <v>4134</v>
       </c>
       <c r="F152" t="n">
         <v>1</v>
       </c>
       <c r="G152" t="n">
-        <v>1703</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="153">
@@ -4165,13 +4171,13 @@
         <v>6</v>
       </c>
       <c r="E153" t="n">
-        <v>4139</v>
+        <v>4140</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>1703</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="154">
@@ -4188,13 +4194,13 @@
         <v>1</v>
       </c>
       <c r="E154" t="n">
-        <v>4140</v>
+        <v>4141</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
       </c>
       <c r="G154" t="n">
-        <v>1703</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="155">
@@ -4211,13 +4217,13 @@
         <v>7</v>
       </c>
       <c r="E155" t="n">
-        <v>4147</v>
+        <v>4148</v>
       </c>
       <c r="F155" t="n">
         <v>2</v>
       </c>
       <c r="G155" t="n">
-        <v>1705</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="156">
@@ -4234,13 +4240,13 @@
         <v>6</v>
       </c>
       <c r="E156" t="n">
-        <v>4153</v>
+        <v>4154</v>
       </c>
       <c r="F156" t="n">
         <v>1</v>
       </c>
       <c r="G156" t="n">
-        <v>1706</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="157">
@@ -4257,13 +4263,13 @@
         <v>7</v>
       </c>
       <c r="E157" t="n">
-        <v>4160</v>
+        <v>4161</v>
       </c>
       <c r="F157" t="n">
         <v>0</v>
       </c>
       <c r="G157" t="n">
-        <v>1706</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="158">
@@ -4280,13 +4286,13 @@
         <v>8</v>
       </c>
       <c r="E158" t="n">
-        <v>4168</v>
+        <v>4169</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
       </c>
       <c r="G158" t="n">
-        <v>1706</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="159">
@@ -4303,13 +4309,13 @@
         <v>14</v>
       </c>
       <c r="E159" t="n">
-        <v>4182</v>
+        <v>4183</v>
       </c>
       <c r="F159" t="n">
         <v>1</v>
       </c>
       <c r="G159" t="n">
-        <v>1707</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="160">
@@ -4326,13 +4332,13 @@
         <v>10</v>
       </c>
       <c r="E160" t="n">
-        <v>4192</v>
+        <v>4193</v>
       </c>
       <c r="F160" t="n">
         <v>1</v>
       </c>
       <c r="G160" t="n">
-        <v>1708</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="161">
@@ -4349,13 +4355,13 @@
         <v>4</v>
       </c>
       <c r="E161" t="n">
-        <v>4196</v>
+        <v>4197</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>1708</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="162">
@@ -4372,13 +4378,13 @@
         <v>7</v>
       </c>
       <c r="E162" t="n">
-        <v>4203</v>
+        <v>4204</v>
       </c>
       <c r="F162" t="n">
         <v>1</v>
       </c>
       <c r="G162" t="n">
-        <v>1709</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="163">
@@ -4395,13 +4401,13 @@
         <v>12</v>
       </c>
       <c r="E163" t="n">
-        <v>4215</v>
+        <v>4216</v>
       </c>
       <c r="F163" t="n">
         <v>1</v>
       </c>
       <c r="G163" t="n">
-        <v>1710</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="164">
@@ -4418,13 +4424,13 @@
         <v>14</v>
       </c>
       <c r="E164" t="n">
-        <v>4229</v>
+        <v>4230</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>1710</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="165">
@@ -4441,13 +4447,13 @@
         <v>5</v>
       </c>
       <c r="E165" t="n">
-        <v>4234</v>
+        <v>4235</v>
       </c>
       <c r="F165" t="n">
         <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>1710</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="166">
@@ -4464,13 +4470,13 @@
         <v>9</v>
       </c>
       <c r="E166" t="n">
-        <v>4243</v>
+        <v>4244</v>
       </c>
       <c r="F166" t="n">
         <v>2</v>
       </c>
       <c r="G166" t="n">
-        <v>1712</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="167">
@@ -4487,13 +4493,13 @@
         <v>6</v>
       </c>
       <c r="E167" t="n">
-        <v>4249</v>
+        <v>4250</v>
       </c>
       <c r="F167" t="n">
         <v>1</v>
       </c>
       <c r="G167" t="n">
-        <v>1713</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="168">
@@ -4510,13 +4516,13 @@
         <v>6</v>
       </c>
       <c r="E168" t="n">
-        <v>4255</v>
+        <v>4256</v>
       </c>
       <c r="F168" t="n">
         <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>1713</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="169">
@@ -4533,13 +4539,13 @@
         <v>5</v>
       </c>
       <c r="E169" t="n">
-        <v>4260</v>
+        <v>4261</v>
       </c>
       <c r="F169" t="n">
         <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>1713</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="170">
@@ -4556,13 +4562,13 @@
         <v>2</v>
       </c>
       <c r="E170" t="n">
-        <v>4262</v>
+        <v>4263</v>
       </c>
       <c r="F170" t="n">
         <v>1</v>
       </c>
       <c r="G170" t="n">
-        <v>1714</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="171">
@@ -4579,13 +4585,13 @@
         <v>7</v>
       </c>
       <c r="E171" t="n">
-        <v>4269</v>
+        <v>4270</v>
       </c>
       <c r="F171" t="n">
         <v>1</v>
       </c>
       <c r="G171" t="n">
-        <v>1715</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="172">
@@ -4602,13 +4608,13 @@
         <v>12</v>
       </c>
       <c r="E172" t="n">
-        <v>4281</v>
+        <v>4282</v>
       </c>
       <c r="F172" t="n">
         <v>1</v>
       </c>
       <c r="G172" t="n">
-        <v>1716</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="173">
@@ -4625,13 +4631,13 @@
         <v>7</v>
       </c>
       <c r="E173" t="n">
-        <v>4288</v>
+        <v>4289</v>
       </c>
       <c r="F173" t="n">
         <v>1</v>
       </c>
       <c r="G173" t="n">
-        <v>1717</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="174">
@@ -4648,13 +4654,13 @@
         <v>9</v>
       </c>
       <c r="E174" t="n">
-        <v>4297</v>
+        <v>4298</v>
       </c>
       <c r="F174" t="n">
         <v>1</v>
       </c>
       <c r="G174" t="n">
-        <v>1718</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="175">
@@ -4671,13 +4677,13 @@
         <v>7</v>
       </c>
       <c r="E175" t="n">
-        <v>4304</v>
+        <v>4305</v>
       </c>
       <c r="F175" t="n">
         <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>1718</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="176">
@@ -4694,13 +4700,13 @@
         <v>8</v>
       </c>
       <c r="E176" t="n">
-        <v>4312</v>
+        <v>4313</v>
       </c>
       <c r="F176" t="n">
         <v>1</v>
       </c>
       <c r="G176" t="n">
-        <v>1719</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="177">
@@ -4717,13 +4723,13 @@
         <v>6</v>
       </c>
       <c r="E177" t="n">
-        <v>4318</v>
+        <v>4319</v>
       </c>
       <c r="F177" t="n">
         <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>1719</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="178">
@@ -4740,13 +4746,13 @@
         <v>5</v>
       </c>
       <c r="E178" t="n">
-        <v>4323</v>
+        <v>4324</v>
       </c>
       <c r="F178" t="n">
         <v>0</v>
       </c>
       <c r="G178" t="n">
-        <v>1719</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="179">
@@ -4763,13 +4769,13 @@
         <v>9</v>
       </c>
       <c r="E179" t="n">
-        <v>4332</v>
+        <v>4333</v>
       </c>
       <c r="F179" t="n">
         <v>1</v>
       </c>
       <c r="G179" t="n">
-        <v>1720</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="180">
@@ -4786,13 +4792,13 @@
         <v>9</v>
       </c>
       <c r="E180" t="n">
-        <v>4341</v>
+        <v>4342</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>1720</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="181">
@@ -4809,13 +4815,13 @@
         <v>8</v>
       </c>
       <c r="E181" t="n">
-        <v>4349</v>
+        <v>4350</v>
       </c>
       <c r="F181" t="n">
         <v>3</v>
       </c>
       <c r="G181" t="n">
-        <v>1723</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="182">
@@ -4832,13 +4838,13 @@
         <v>7</v>
       </c>
       <c r="E182" t="n">
-        <v>4356</v>
+        <v>4357</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>1723</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="183">
@@ -4855,13 +4861,13 @@
         <v>9</v>
       </c>
       <c r="E183" t="n">
-        <v>4365</v>
+        <v>4366</v>
       </c>
       <c r="F183" t="n">
         <v>1</v>
       </c>
       <c r="G183" t="n">
-        <v>1724</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="184">
@@ -4878,13 +4884,13 @@
         <v>7</v>
       </c>
       <c r="E184" t="n">
-        <v>4372</v>
+        <v>4373</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
       </c>
       <c r="G184" t="n">
-        <v>1724</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="185">
@@ -4898,16 +4904,16 @@
         <v>39260</v>
       </c>
       <c r="D185" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E185" t="n">
-        <v>4378</v>
+        <v>4380</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>1724</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="186">
@@ -4924,13 +4930,13 @@
         <v>8</v>
       </c>
       <c r="E186" t="n">
-        <v>4386</v>
+        <v>4388</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
       </c>
       <c r="G186" t="n">
-        <v>1724</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="187">
@@ -4947,13 +4953,13 @@
         <v>8</v>
       </c>
       <c r="E187" t="n">
-        <v>4394</v>
+        <v>4396</v>
       </c>
       <c r="F187" t="n">
         <v>1</v>
       </c>
       <c r="G187" t="n">
-        <v>1725</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="188">
@@ -4970,13 +4976,13 @@
         <v>5</v>
       </c>
       <c r="E188" t="n">
-        <v>4399</v>
+        <v>4401</v>
       </c>
       <c r="F188" t="n">
         <v>1</v>
       </c>
       <c r="G188" t="n">
-        <v>1726</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="189">
@@ -4993,13 +4999,13 @@
         <v>5</v>
       </c>
       <c r="E189" t="n">
-        <v>4404</v>
+        <v>4406</v>
       </c>
       <c r="F189" t="n">
         <v>2</v>
       </c>
       <c r="G189" t="n">
-        <v>1728</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="190">
@@ -5016,13 +5022,13 @@
         <v>7</v>
       </c>
       <c r="E190" t="n">
-        <v>4411</v>
+        <v>4413</v>
       </c>
       <c r="F190" t="n">
         <v>1</v>
       </c>
       <c r="G190" t="n">
-        <v>1729</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="191">
@@ -5039,13 +5045,13 @@
         <v>5</v>
       </c>
       <c r="E191" t="n">
-        <v>4416</v>
+        <v>4418</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
       </c>
       <c r="G191" t="n">
-        <v>1729</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="192">
@@ -5062,13 +5068,13 @@
         <v>7</v>
       </c>
       <c r="E192" t="n">
-        <v>4423</v>
+        <v>4425</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
       </c>
       <c r="G192" t="n">
-        <v>1729</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="193">
@@ -5085,13 +5091,13 @@
         <v>5</v>
       </c>
       <c r="E193" t="n">
-        <v>4428</v>
+        <v>4430</v>
       </c>
       <c r="F193" t="n">
         <v>2</v>
       </c>
       <c r="G193" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="194">
@@ -5108,13 +5114,13 @@
         <v>9</v>
       </c>
       <c r="E194" t="n">
-        <v>4437</v>
+        <v>4439</v>
       </c>
       <c r="F194" t="n">
         <v>0</v>
       </c>
       <c r="G194" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="195">
@@ -5131,13 +5137,13 @@
         <v>2</v>
       </c>
       <c r="E195" t="n">
-        <v>4439</v>
+        <v>4441</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
       </c>
       <c r="G195" t="n">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="196">
@@ -5154,13 +5160,13 @@
         <v>7</v>
       </c>
       <c r="E196" t="n">
-        <v>4446</v>
+        <v>4448</v>
       </c>
       <c r="F196" t="n">
         <v>1</v>
       </c>
       <c r="G196" t="n">
-        <v>1732</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="197">
@@ -5177,13 +5183,13 @@
         <v>6</v>
       </c>
       <c r="E197" t="n">
-        <v>4452</v>
+        <v>4454</v>
       </c>
       <c r="F197" t="n">
         <v>1</v>
       </c>
       <c r="G197" t="n">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="198">
@@ -5200,13 +5206,13 @@
         <v>10</v>
       </c>
       <c r="E198" t="n">
-        <v>4462</v>
+        <v>4464</v>
       </c>
       <c r="F198" t="n">
         <v>1</v>
       </c>
       <c r="G198" t="n">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="199">
@@ -5223,13 +5229,13 @@
         <v>11</v>
       </c>
       <c r="E199" t="n">
-        <v>4473</v>
+        <v>4475</v>
       </c>
       <c r="F199" t="n">
         <v>3</v>
       </c>
       <c r="G199" t="n">
-        <v>1737</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="200">
@@ -5246,13 +5252,13 @@
         <v>11</v>
       </c>
       <c r="E200" t="n">
-        <v>4484</v>
+        <v>4486</v>
       </c>
       <c r="F200" t="n">
         <v>1</v>
       </c>
       <c r="G200" t="n">
-        <v>1738</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="201">
@@ -5266,16 +5272,16 @@
         <v>44343</v>
       </c>
       <c r="D201" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E201" t="n">
-        <v>4494</v>
+        <v>4497</v>
       </c>
       <c r="F201" t="n">
         <v>2</v>
       </c>
       <c r="G201" t="n">
-        <v>1740</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="202">
@@ -5292,13 +5298,13 @@
         <v>8</v>
       </c>
       <c r="E202" t="n">
-        <v>4502</v>
+        <v>4505</v>
       </c>
       <c r="F202" t="n">
         <v>2</v>
       </c>
       <c r="G202" t="n">
-        <v>1742</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="203">
@@ -5315,13 +5321,13 @@
         <v>8</v>
       </c>
       <c r="E203" t="n">
-        <v>4510</v>
+        <v>4513</v>
       </c>
       <c r="F203" t="n">
         <v>3</v>
       </c>
       <c r="G203" t="n">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="204">
@@ -5338,13 +5344,13 @@
         <v>14</v>
       </c>
       <c r="E204" t="n">
-        <v>4524</v>
+        <v>4527</v>
       </c>
       <c r="F204" t="n">
         <v>1</v>
       </c>
       <c r="G204" t="n">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="205">
@@ -5361,13 +5367,13 @@
         <v>7</v>
       </c>
       <c r="E205" t="n">
-        <v>4531</v>
+        <v>4534</v>
       </c>
       <c r="F205" t="n">
         <v>1</v>
       </c>
       <c r="G205" t="n">
-        <v>1747</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="206">
@@ -5384,13 +5390,13 @@
         <v>13</v>
       </c>
       <c r="E206" t="n">
-        <v>4544</v>
+        <v>4547</v>
       </c>
       <c r="F206" t="n">
         <v>7</v>
       </c>
       <c r="G206" t="n">
-        <v>1754</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="207">
@@ -5407,13 +5413,13 @@
         <v>22</v>
       </c>
       <c r="E207" t="n">
-        <v>4566</v>
+        <v>4569</v>
       </c>
       <c r="F207" t="n">
         <v>0</v>
       </c>
       <c r="G207" t="n">
-        <v>1754</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="208">
@@ -5430,13 +5436,13 @@
         <v>14</v>
       </c>
       <c r="E208" t="n">
-        <v>4580</v>
+        <v>4583</v>
       </c>
       <c r="F208" t="n">
         <v>4</v>
       </c>
       <c r="G208" t="n">
-        <v>1758</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="209">
@@ -5453,13 +5459,13 @@
         <v>13</v>
       </c>
       <c r="E209" t="n">
-        <v>4593</v>
+        <v>4596</v>
       </c>
       <c r="F209" t="n">
         <v>3</v>
       </c>
       <c r="G209" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="210">
@@ -5476,13 +5482,13 @@
         <v>11</v>
       </c>
       <c r="E210" t="n">
-        <v>4604</v>
+        <v>4607</v>
       </c>
       <c r="F210" t="n">
         <v>1</v>
       </c>
       <c r="G210" t="n">
-        <v>1762</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="211">
@@ -5499,13 +5505,13 @@
         <v>10</v>
       </c>
       <c r="E211" t="n">
-        <v>4614</v>
+        <v>4617</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
       </c>
       <c r="G211" t="n">
-        <v>1762</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="212">
@@ -5522,13 +5528,13 @@
         <v>10</v>
       </c>
       <c r="E212" t="n">
-        <v>4624</v>
+        <v>4627</v>
       </c>
       <c r="F212" t="n">
         <v>3</v>
       </c>
       <c r="G212" t="n">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="213">
@@ -5545,13 +5551,13 @@
         <v>22</v>
       </c>
       <c r="E213" t="n">
-        <v>4646</v>
+        <v>4649</v>
       </c>
       <c r="F213" t="n">
         <v>5</v>
       </c>
       <c r="G213" t="n">
-        <v>1770</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="214">
@@ -5565,16 +5571,16 @@
         <v>49649</v>
       </c>
       <c r="D214" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E214" t="n">
-        <v>4659</v>
+        <v>4663</v>
       </c>
       <c r="F214" t="n">
         <v>4</v>
       </c>
       <c r="G214" t="n">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="215">
@@ -5591,13 +5597,13 @@
         <v>22</v>
       </c>
       <c r="E215" t="n">
-        <v>4681</v>
+        <v>4685</v>
       </c>
       <c r="F215" t="n">
         <v>2</v>
       </c>
       <c r="G215" t="n">
-        <v>1776</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="216">
@@ -5614,13 +5620,13 @@
         <v>10</v>
       </c>
       <c r="E216" t="n">
-        <v>4691</v>
+        <v>4695</v>
       </c>
       <c r="F216" t="n">
         <v>1</v>
       </c>
       <c r="G216" t="n">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="217">
@@ -5637,13 +5643,13 @@
         <v>12</v>
       </c>
       <c r="E217" t="n">
-        <v>4703</v>
+        <v>4707</v>
       </c>
       <c r="F217" t="n">
         <v>0</v>
       </c>
       <c r="G217" t="n">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="218">
@@ -5660,13 +5666,13 @@
         <v>22</v>
       </c>
       <c r="E218" t="n">
-        <v>4725</v>
+        <v>4729</v>
       </c>
       <c r="F218" t="n">
         <v>3</v>
       </c>
       <c r="G218" t="n">
-        <v>1780</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="219">
@@ -5683,13 +5689,13 @@
         <v>9</v>
       </c>
       <c r="E219" t="n">
-        <v>4734</v>
+        <v>4738</v>
       </c>
       <c r="F219" t="n">
         <v>1</v>
       </c>
       <c r="G219" t="n">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="220">
@@ -5706,13 +5712,13 @@
         <v>15</v>
       </c>
       <c r="E220" t="n">
-        <v>4749</v>
+        <v>4753</v>
       </c>
       <c r="F220" t="n">
         <v>1</v>
       </c>
       <c r="G220" t="n">
-        <v>1782</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="221">
@@ -5729,13 +5735,13 @@
         <v>16</v>
       </c>
       <c r="E221" t="n">
-        <v>4765</v>
+        <v>4769</v>
       </c>
       <c r="F221" t="n">
         <v>3</v>
       </c>
       <c r="G221" t="n">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="222">
@@ -5752,13 +5758,13 @@
         <v>13</v>
       </c>
       <c r="E222" t="n">
-        <v>4778</v>
+        <v>4782</v>
       </c>
       <c r="F222" t="n">
         <v>1</v>
       </c>
       <c r="G222" t="n">
-        <v>1786</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="223">
@@ -5775,13 +5781,13 @@
         <v>8</v>
       </c>
       <c r="E223" t="n">
-        <v>4786</v>
+        <v>4790</v>
       </c>
       <c r="F223" t="n">
         <v>2</v>
       </c>
       <c r="G223" t="n">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="224">
@@ -5798,13 +5804,13 @@
         <v>18</v>
       </c>
       <c r="E224" t="n">
-        <v>4804</v>
+        <v>4808</v>
       </c>
       <c r="F224" t="n">
         <v>1</v>
       </c>
       <c r="G224" t="n">
-        <v>1789</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="225">
@@ -5818,16 +5824,16 @@
         <v>53171</v>
       </c>
       <c r="D225" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E225" t="n">
-        <v>4821</v>
+        <v>4826</v>
       </c>
       <c r="F225" t="n">
         <v>3</v>
       </c>
       <c r="G225" t="n">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="226">
@@ -5844,13 +5850,13 @@
         <v>25</v>
       </c>
       <c r="E226" t="n">
-        <v>4846</v>
+        <v>4851</v>
       </c>
       <c r="F226" t="n">
         <v>1</v>
       </c>
       <c r="G226" t="n">
-        <v>1793</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="227">
@@ -5867,13 +5873,13 @@
         <v>22</v>
       </c>
       <c r="E227" t="n">
-        <v>4868</v>
+        <v>4873</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
       </c>
       <c r="G227" t="n">
-        <v>1793</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="228">
@@ -5890,13 +5896,13 @@
         <v>18</v>
       </c>
       <c r="E228" t="n">
-        <v>4886</v>
+        <v>4891</v>
       </c>
       <c r="F228" t="n">
         <v>5</v>
       </c>
       <c r="G228" t="n">
-        <v>1798</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="229">
@@ -5913,13 +5919,13 @@
         <v>24</v>
       </c>
       <c r="E229" t="n">
-        <v>4910</v>
+        <v>4915</v>
       </c>
       <c r="F229" t="n">
         <v>1</v>
       </c>
       <c r="G229" t="n">
-        <v>1799</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="230">
@@ -5933,16 +5939,16 @@
         <v>55957</v>
       </c>
       <c r="D230" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E230" t="n">
-        <v>4927</v>
+        <v>4933</v>
       </c>
       <c r="F230" t="n">
         <v>0</v>
       </c>
       <c r="G230" t="n">
-        <v>1799</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="231">
@@ -5959,13 +5965,13 @@
         <v>13</v>
       </c>
       <c r="E231" t="n">
-        <v>4940</v>
+        <v>4946</v>
       </c>
       <c r="F231" t="n">
         <v>1</v>
       </c>
       <c r="G231" t="n">
-        <v>1800</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="232">
@@ -5982,13 +5988,13 @@
         <v>18</v>
       </c>
       <c r="E232" t="n">
-        <v>4958</v>
+        <v>4964</v>
       </c>
       <c r="F232" t="n">
         <v>2</v>
       </c>
       <c r="G232" t="n">
-        <v>1802</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="233">
@@ -6005,13 +6011,13 @@
         <v>32</v>
       </c>
       <c r="E233" t="n">
-        <v>4990</v>
+        <v>4996</v>
       </c>
       <c r="F233" t="n">
         <v>1</v>
       </c>
       <c r="G233" t="n">
-        <v>1803</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="234">
@@ -6025,16 +6031,16 @@
         <v>59772</v>
       </c>
       <c r="D234" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E234" t="n">
-        <v>5024</v>
+        <v>5031</v>
       </c>
       <c r="F234" t="n">
         <v>2</v>
       </c>
       <c r="G234" t="n">
-        <v>1805</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="235">
@@ -6048,16 +6054,16 @@
         <v>61246</v>
       </c>
       <c r="D235" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E235" t="n">
-        <v>5075</v>
+        <v>5083</v>
       </c>
       <c r="F235" t="n">
         <v>3</v>
       </c>
       <c r="G235" t="n">
-        <v>1808</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="236">
@@ -6071,16 +6077,16 @@
         <v>62974</v>
       </c>
       <c r="D236" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E236" t="n">
-        <v>5122</v>
+        <v>5129</v>
       </c>
       <c r="F236" t="n">
         <v>3</v>
       </c>
       <c r="G236" t="n">
-        <v>1811</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="237">
@@ -6094,16 +6100,16 @@
         <v>64229</v>
       </c>
       <c r="D237" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E237" t="n">
-        <v>5152</v>
+        <v>5160</v>
       </c>
       <c r="F237" t="n">
         <v>3</v>
       </c>
       <c r="G237" t="n">
-        <v>1814</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="238">
@@ -6120,13 +6126,13 @@
         <v>45</v>
       </c>
       <c r="E238" t="n">
-        <v>5197</v>
+        <v>5205</v>
       </c>
       <c r="F238" t="n">
         <v>3</v>
       </c>
       <c r="G238" t="n">
-        <v>1817</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="239">
@@ -6134,22 +6140,22 @@
         <v>44116</v>
       </c>
       <c r="B239" t="n">
-        <v>2566</v>
+        <v>2567</v>
       </c>
       <c r="C239" t="n">
-        <v>67606</v>
+        <v>67607</v>
       </c>
       <c r="D239" t="n">
         <v>75</v>
       </c>
       <c r="E239" t="n">
-        <v>5272</v>
+        <v>5280</v>
       </c>
       <c r="F239" t="n">
         <v>5</v>
       </c>
       <c r="G239" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="240">
@@ -6160,19 +6166,19 @@
         <v>2695</v>
       </c>
       <c r="C240" t="n">
-        <v>70301</v>
+        <v>70302</v>
       </c>
       <c r="D240" t="n">
         <v>64</v>
       </c>
       <c r="E240" t="n">
-        <v>5336</v>
+        <v>5344</v>
       </c>
       <c r="F240" t="n">
         <v>6</v>
       </c>
       <c r="G240" t="n">
-        <v>1828</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="241">
@@ -6180,22 +6186,22 @@
         <v>44118</v>
       </c>
       <c r="B241" t="n">
-        <v>3004</v>
+        <v>3005</v>
       </c>
       <c r="C241" t="n">
-        <v>73305</v>
+        <v>73307</v>
       </c>
       <c r="D241" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E241" t="n">
-        <v>5420</v>
+        <v>5429</v>
       </c>
       <c r="F241" t="n">
         <v>4</v>
       </c>
       <c r="G241" t="n">
-        <v>1832</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="242">
@@ -6206,19 +6212,19 @@
         <v>3409</v>
       </c>
       <c r="C242" t="n">
-        <v>76714</v>
+        <v>76716</v>
       </c>
       <c r="D242" t="n">
         <v>89</v>
       </c>
       <c r="E242" t="n">
-        <v>5509</v>
+        <v>5518</v>
       </c>
       <c r="F242" t="n">
         <v>5</v>
       </c>
       <c r="G242" t="n">
-        <v>1837</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="243">
@@ -6226,22 +6232,22 @@
         <v>44120</v>
       </c>
       <c r="B243" t="n">
-        <v>3696</v>
+        <v>3697</v>
       </c>
       <c r="C243" t="n">
-        <v>80410</v>
+        <v>80413</v>
       </c>
       <c r="D243" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E243" t="n">
-        <v>5610</v>
+        <v>5622</v>
       </c>
       <c r="F243" t="n">
         <v>8</v>
       </c>
       <c r="G243" t="n">
-        <v>1845</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="244">
@@ -6249,22 +6255,22 @@
         <v>44121</v>
       </c>
       <c r="B244" t="n">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="C244" t="n">
-        <v>82791</v>
+        <v>82793</v>
       </c>
       <c r="D244" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E244" t="n">
-        <v>5719</v>
+        <v>5730</v>
       </c>
       <c r="F244" t="n">
         <v>6</v>
       </c>
       <c r="G244" t="n">
-        <v>1851</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="245">
@@ -6275,19 +6281,19 @@
         <v>1789</v>
       </c>
       <c r="C245" t="n">
-        <v>84580</v>
+        <v>84582</v>
       </c>
       <c r="D245" t="n">
         <v>67</v>
       </c>
       <c r="E245" t="n">
-        <v>5786</v>
+        <v>5797</v>
       </c>
       <c r="F245" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G245" t="n">
-        <v>1856</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="246">
@@ -6295,22 +6301,22 @@
         <v>44123</v>
       </c>
       <c r="B246" t="n">
-        <v>5418</v>
+        <v>5417</v>
       </c>
       <c r="C246" t="n">
-        <v>89998</v>
+        <v>89999</v>
       </c>
       <c r="D246" t="n">
         <v>150</v>
       </c>
       <c r="E246" t="n">
-        <v>5936</v>
+        <v>5947</v>
       </c>
       <c r="F246" t="n">
         <v>12</v>
       </c>
       <c r="G246" t="n">
-        <v>1868</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="247">
@@ -6321,19 +6327,19 @@
         <v>5684</v>
       </c>
       <c r="C247" t="n">
-        <v>95682</v>
+        <v>95683</v>
       </c>
       <c r="D247" t="n">
         <v>146</v>
       </c>
       <c r="E247" t="n">
-        <v>6082</v>
+        <v>6093</v>
       </c>
       <c r="F247" t="n">
         <v>10</v>
       </c>
       <c r="G247" t="n">
-        <v>1878</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="248">
@@ -6341,22 +6347,22 @@
         <v>44125</v>
       </c>
       <c r="B248" t="n">
-        <v>6473</v>
+        <v>6474</v>
       </c>
       <c r="C248" t="n">
-        <v>102155</v>
+        <v>102157</v>
       </c>
       <c r="D248" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E248" t="n">
-        <v>6211</v>
+        <v>6223</v>
       </c>
       <c r="F248" t="n">
         <v>12</v>
       </c>
       <c r="G248" t="n">
-        <v>1890</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="249">
@@ -6364,22 +6370,22 @@
         <v>44126</v>
       </c>
       <c r="B249" t="n">
-        <v>6785</v>
+        <v>6784</v>
       </c>
       <c r="C249" t="n">
-        <v>108940</v>
+        <v>108941</v>
       </c>
       <c r="D249" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E249" t="n">
-        <v>6369</v>
+        <v>6382</v>
       </c>
       <c r="F249" t="n">
         <v>20</v>
       </c>
       <c r="G249" t="n">
-        <v>1910</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="250">
@@ -6390,19 +6396,19 @@
         <v>7530</v>
       </c>
       <c r="C250" t="n">
-        <v>116470</v>
+        <v>116471</v>
       </c>
       <c r="D250" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E250" t="n">
-        <v>6555</v>
+        <v>6570</v>
       </c>
       <c r="F250" t="n">
         <v>21</v>
       </c>
       <c r="G250" t="n">
-        <v>1931</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="251">
@@ -6413,19 +6419,19 @@
         <v>4689</v>
       </c>
       <c r="C251" t="n">
-        <v>121159</v>
+        <v>121160</v>
       </c>
       <c r="D251" t="n">
         <v>158</v>
       </c>
       <c r="E251" t="n">
-        <v>6713</v>
+        <v>6728</v>
       </c>
       <c r="F251" t="n">
         <v>21</v>
       </c>
       <c r="G251" t="n">
-        <v>1952</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="252">
@@ -6436,19 +6442,19 @@
         <v>3222</v>
       </c>
       <c r="C252" t="n">
-        <v>124381</v>
+        <v>124382</v>
       </c>
       <c r="D252" t="n">
         <v>176</v>
       </c>
       <c r="E252" t="n">
-        <v>6889</v>
+        <v>6904</v>
       </c>
       <c r="F252" t="n">
         <v>16</v>
       </c>
       <c r="G252" t="n">
-        <v>1968</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="253">
@@ -6456,22 +6462,22 @@
         <v>44130</v>
       </c>
       <c r="B253" t="n">
-        <v>10136</v>
+        <v>10135</v>
       </c>
       <c r="C253" t="n">
         <v>134517</v>
       </c>
       <c r="D253" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E253" t="n">
-        <v>7114</v>
+        <v>7130</v>
       </c>
       <c r="F253" t="n">
         <v>14</v>
       </c>
       <c r="G253" t="n">
-        <v>1982</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="254">
@@ -6485,16 +6491,16 @@
         <v>144298</v>
       </c>
       <c r="D254" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E254" t="n">
-        <v>7303</v>
+        <v>7320</v>
       </c>
       <c r="F254" t="n">
         <v>35</v>
       </c>
       <c r="G254" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="255">
@@ -6508,16 +6514,16 @@
         <v>153636</v>
       </c>
       <c r="D255" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E255" t="n">
-        <v>7531</v>
+        <v>7550</v>
       </c>
       <c r="F255" t="n">
         <v>40</v>
       </c>
       <c r="G255" t="n">
-        <v>2057</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="256">
@@ -6531,16 +6537,16 @@
         <v>162654</v>
       </c>
       <c r="D256" t="n">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E256" t="n">
-        <v>7735</v>
+        <v>7758</v>
       </c>
       <c r="F256" t="n">
         <v>54</v>
       </c>
       <c r="G256" t="n">
-        <v>2111</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="257">
@@ -6554,16 +6560,16 @@
         <v>171622</v>
       </c>
       <c r="D257" t="n">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="E257" t="n">
-        <v>7989</v>
+        <v>8017</v>
       </c>
       <c r="F257" t="n">
         <v>39</v>
       </c>
       <c r="G257" t="n">
-        <v>2150</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="258">
@@ -6577,16 +6583,16 @@
         <v>176773</v>
       </c>
       <c r="D258" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E258" t="n">
-        <v>8147</v>
+        <v>8177</v>
       </c>
       <c r="F258" t="n">
         <v>55</v>
       </c>
       <c r="G258" t="n">
-        <v>2205</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="259">
@@ -6600,16 +6606,16 @@
         <v>180396</v>
       </c>
       <c r="D259" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E259" t="n">
-        <v>8333</v>
+        <v>8365</v>
       </c>
       <c r="F259" t="n">
         <v>52</v>
       </c>
       <c r="G259" t="n">
-        <v>2257</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="260">
@@ -6617,22 +6623,22 @@
         <v>44137</v>
       </c>
       <c r="B260" t="n">
-        <v>10534</v>
+        <v>10537</v>
       </c>
       <c r="C260" t="n">
-        <v>190930</v>
+        <v>190933</v>
       </c>
       <c r="D260" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E260" t="n">
-        <v>8591</v>
+        <v>8625</v>
       </c>
       <c r="F260" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G260" t="n">
-        <v>2310</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="261">
@@ -6643,19 +6649,19 @@
         <v>9627</v>
       </c>
       <c r="C261" t="n">
-        <v>200557</v>
+        <v>200560</v>
       </c>
       <c r="D261" t="n">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E261" t="n">
-        <v>8816</v>
+        <v>8858</v>
       </c>
       <c r="F261" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G261" t="n">
-        <v>2373</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="262">
@@ -6666,19 +6672,19 @@
         <v>8749</v>
       </c>
       <c r="C262" t="n">
-        <v>209306</v>
+        <v>209309</v>
       </c>
       <c r="D262" t="n">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E262" t="n">
-        <v>8989</v>
+        <v>9036</v>
       </c>
       <c r="F262" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G262" t="n">
-        <v>2443</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="263">
@@ -6686,22 +6692,22 @@
         <v>44140</v>
       </c>
       <c r="B263" t="n">
-        <v>7867</v>
+        <v>7869</v>
       </c>
       <c r="C263" t="n">
-        <v>217173</v>
+        <v>217178</v>
       </c>
       <c r="D263" t="n">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E263" t="n">
-        <v>9150</v>
+        <v>9203</v>
       </c>
       <c r="F263" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G263" t="n">
-        <v>2509</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="264">
@@ -6709,22 +6715,22 @@
         <v>44141</v>
       </c>
       <c r="B264" t="n">
-        <v>7395</v>
+        <v>7398</v>
       </c>
       <c r="C264" t="n">
-        <v>224568</v>
+        <v>224576</v>
       </c>
       <c r="D264" t="n">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="E264" t="n">
-        <v>9355</v>
+        <v>9415</v>
       </c>
       <c r="F264" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G264" t="n">
-        <v>2586</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="265">
@@ -6735,19 +6741,19 @@
         <v>4202</v>
       </c>
       <c r="C265" t="n">
-        <v>228770</v>
+        <v>228778</v>
       </c>
       <c r="D265" t="n">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E265" t="n">
-        <v>9541</v>
+        <v>9606</v>
       </c>
       <c r="F265" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G265" t="n">
-        <v>2647</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="266">
@@ -6755,22 +6761,22 @@
         <v>44143</v>
       </c>
       <c r="B266" t="n">
-        <v>2995</v>
+        <v>2997</v>
       </c>
       <c r="C266" t="n">
-        <v>231765</v>
+        <v>231775</v>
       </c>
       <c r="D266" t="n">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E266" t="n">
-        <v>9676</v>
+        <v>9748</v>
       </c>
       <c r="F266" t="n">
         <v>84</v>
       </c>
       <c r="G266" t="n">
-        <v>2731</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="267">
@@ -6778,22 +6784,22 @@
         <v>44144</v>
       </c>
       <c r="B267" t="n">
-        <v>8705</v>
+        <v>8707</v>
       </c>
       <c r="C267" t="n">
-        <v>240470</v>
+        <v>240482</v>
       </c>
       <c r="D267" t="n">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="E267" t="n">
-        <v>9895</v>
+        <v>9977</v>
       </c>
       <c r="F267" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G267" t="n">
-        <v>2811</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="268">
@@ -6804,19 +6810,19 @@
         <v>7395</v>
       </c>
       <c r="C268" t="n">
-        <v>247865</v>
+        <v>247877</v>
       </c>
       <c r="D268" t="n">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E268" t="n">
-        <v>10054</v>
+        <v>10144</v>
       </c>
       <c r="F268" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G268" t="n">
-        <v>2886</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="269">
@@ -6824,22 +6830,22 @@
         <v>44146</v>
       </c>
       <c r="B269" t="n">
-        <v>6295</v>
+        <v>6296</v>
       </c>
       <c r="C269" t="n">
-        <v>254160</v>
+        <v>254173</v>
       </c>
       <c r="D269" t="n">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E269" t="n">
-        <v>10196</v>
+        <v>10296</v>
       </c>
       <c r="F269" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G269" t="n">
-        <v>2965</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="270">
@@ -6847,22 +6853,22 @@
         <v>44147</v>
       </c>
       <c r="B270" t="n">
-        <v>5878</v>
+        <v>5882</v>
       </c>
       <c r="C270" t="n">
-        <v>260038</v>
+        <v>260055</v>
       </c>
       <c r="D270" t="n">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="E270" t="n">
-        <v>10300</v>
+        <v>10430</v>
       </c>
       <c r="F270" t="n">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G270" t="n">
-        <v>3042</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="271">
@@ -6870,22 +6876,22 @@
         <v>44148</v>
       </c>
       <c r="B271" t="n">
-        <v>5508</v>
+        <v>5590</v>
       </c>
       <c r="C271" t="n">
-        <v>265546</v>
+        <v>265645</v>
       </c>
       <c r="D271" t="n">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="E271" t="n">
-        <v>10373</v>
+        <v>10549</v>
       </c>
       <c r="F271" t="n">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="G271" t="n">
-        <v>3100</v>
+        <v>3144</v>
       </c>
     </row>
     <row r="272">
@@ -6893,22 +6899,22 @@
         <v>44149</v>
       </c>
       <c r="B272" t="n">
-        <v>2971</v>
+        <v>3157</v>
       </c>
       <c r="C272" t="n">
-        <v>268517</v>
+        <v>268802</v>
       </c>
       <c r="D272" t="n">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="E272" t="n">
-        <v>10430</v>
+        <v>10661</v>
       </c>
       <c r="F272" t="n">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="G272" t="n">
-        <v>3133</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="273">
@@ -6916,22 +6922,22 @@
         <v>44150</v>
       </c>
       <c r="B273" t="n">
-        <v>1450</v>
+        <v>2188</v>
       </c>
       <c r="C273" t="n">
-        <v>269967</v>
+        <v>270990</v>
       </c>
       <c r="D273" t="n">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="E273" t="n">
-        <v>10447</v>
+        <v>10722</v>
       </c>
       <c r="F273" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="G273" t="n">
-        <v>3156</v>
+        <v>3255</v>
       </c>
     </row>
     <row r="274">
@@ -6939,22 +6945,45 @@
         <v>44151</v>
       </c>
       <c r="B274" t="n">
+        <v>3537</v>
+      </c>
+      <c r="C274" t="n">
+        <v>274527</v>
+      </c>
+      <c r="D274" t="n">
+        <v>25</v>
+      </c>
+      <c r="E274" t="n">
+        <v>10747</v>
+      </c>
+      <c r="F274" t="n">
+        <v>44</v>
+      </c>
+      <c r="G274" t="n">
+        <v>3299</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>44152</v>
+      </c>
+      <c r="B275" t="n">
         <v>7</v>
       </c>
-      <c r="C274" t="n">
-        <v>269974</v>
-      </c>
-      <c r="D274" t="n">
+      <c r="C275" t="n">
+        <v>274534</v>
+      </c>
+      <c r="D275" t="n">
+        <v>0</v>
+      </c>
+      <c r="E275" t="n">
+        <v>10747</v>
+      </c>
+      <c r="F275" t="n">
         <v>1</v>
       </c>
-      <c r="E274" t="n">
-        <v>10448</v>
-      </c>
-      <c r="F274" t="n">
-        <v>2</v>
-      </c>
-      <c r="G274" t="n">
-        <v>3158</v>
+      <c r="G275" t="n">
+        <v>3300</v>
       </c>
     </row>
   </sheetData>
@@ -7044,31 +7073,31 @@
         <v>25</v>
       </c>
       <c r="B8" t="n">
-        <v>1189</v>
+        <v>1207</v>
       </c>
       <c r="C8" t="n">
         <v>0.9</v>
       </c>
       <c r="D8" t="n">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E8" t="n">
-        <v>1004</v>
+        <v>1028</v>
       </c>
       <c r="F8" t="n">
         <v>0.7</v>
       </c>
       <c r="G8" t="n">
-        <v>235.3</v>
+        <v>240.9</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="J8" t="n">
-        <v>2194</v>
+        <v>2236</v>
       </c>
       <c r="K8" t="n">
         <v>0.8</v>
@@ -7079,31 +7108,31 @@
         <v>26</v>
       </c>
       <c r="B9" t="n">
-        <v>10729</v>
+        <v>10900</v>
       </c>
       <c r="C9" t="n">
         <v>8.2</v>
       </c>
       <c r="D9" t="n">
-        <v>2457.3</v>
+        <v>2496.5</v>
       </c>
       <c r="E9" t="n">
-        <v>10811</v>
+        <v>10985</v>
       </c>
       <c r="F9" t="n">
         <v>7.8</v>
       </c>
       <c r="G9" t="n">
-        <v>2627.5</v>
+        <v>2669.8</v>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I9" t="n">
-        <v>9</v>
+        <v>9.9</v>
       </c>
       <c r="J9" t="n">
-        <v>21546</v>
+        <v>21892</v>
       </c>
       <c r="K9" t="n">
         <v>8</v>
@@ -7114,31 +7143,31 @@
         <v>27</v>
       </c>
       <c r="B10" t="n">
-        <v>24184</v>
+        <v>24548</v>
       </c>
       <c r="C10" t="n">
         <v>18.5</v>
       </c>
       <c r="D10" t="n">
-        <v>4502.5</v>
+        <v>4570.2</v>
       </c>
       <c r="E10" t="n">
-        <v>25782</v>
+        <v>26203</v>
       </c>
       <c r="F10" t="n">
         <v>18.5</v>
       </c>
       <c r="G10" t="n">
-        <v>5028.4</v>
+        <v>5110.5</v>
       </c>
       <c r="H10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I10" t="n">
-        <v>16.4</v>
+        <v>16.9</v>
       </c>
       <c r="J10" t="n">
-        <v>49977</v>
+        <v>50763</v>
       </c>
       <c r="K10" t="n">
         <v>18.5</v>
@@ -7149,31 +7178,31 @@
         <v>28</v>
       </c>
       <c r="B11" t="n">
-        <v>22921</v>
+        <v>23313</v>
       </c>
       <c r="C11" t="n">
         <v>17.5</v>
       </c>
       <c r="D11" t="n">
-        <v>3677.1</v>
+        <v>3740</v>
       </c>
       <c r="E11" t="n">
-        <v>23496</v>
+        <v>23923</v>
       </c>
       <c r="F11" t="n">
         <v>16.9</v>
       </c>
       <c r="G11" t="n">
-        <v>3846.8</v>
+        <v>3916.7</v>
       </c>
       <c r="H11" t="n">
         <v>18</v>
       </c>
       <c r="I11" t="n">
-        <v>26.9</v>
+        <v>25.4</v>
       </c>
       <c r="J11" t="n">
-        <v>46435</v>
+        <v>47254</v>
       </c>
       <c r="K11" t="n">
         <v>17.2</v>
@@ -7184,31 +7213,31 @@
         <v>29</v>
       </c>
       <c r="B12" t="n">
-        <v>20499</v>
+        <v>20826</v>
       </c>
       <c r="C12" t="n">
         <v>15.7</v>
       </c>
       <c r="D12" t="n">
-        <v>3386.6</v>
+        <v>3440.7</v>
       </c>
       <c r="E12" t="n">
-        <v>23061</v>
+        <v>23481</v>
       </c>
       <c r="F12" t="n">
         <v>16.6</v>
       </c>
       <c r="G12" t="n">
-        <v>3852.9</v>
+        <v>3923.1</v>
       </c>
       <c r="H12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I12" t="n">
-        <v>16.4</v>
+        <v>16.9</v>
       </c>
       <c r="J12" t="n">
-        <v>43571</v>
+        <v>44319</v>
       </c>
       <c r="K12" t="n">
         <v>16.1</v>
@@ -7219,31 +7248,31 @@
         <v>30</v>
       </c>
       <c r="B13" t="n">
-        <v>22247</v>
+        <v>22620</v>
       </c>
       <c r="C13" t="n">
         <v>17</v>
       </c>
       <c r="D13" t="n">
-        <v>3399.7</v>
+        <v>3456.7</v>
       </c>
       <c r="E13" t="n">
-        <v>23378</v>
+        <v>23751</v>
       </c>
       <c r="F13" t="n">
         <v>16.8</v>
       </c>
       <c r="G13" t="n">
-        <v>3627.1</v>
+        <v>3685</v>
       </c>
       <c r="H13" t="n">
         <v>11</v>
       </c>
       <c r="I13" t="n">
-        <v>16.4</v>
+        <v>15.5</v>
       </c>
       <c r="J13" t="n">
-        <v>45636</v>
+        <v>46382</v>
       </c>
       <c r="K13" t="n">
         <v>16.9</v>
@@ -7254,31 +7283,31 @@
         <v>31</v>
       </c>
       <c r="B14" t="n">
-        <v>13571</v>
+        <v>13781</v>
       </c>
       <c r="C14" t="n">
         <v>10.4</v>
       </c>
       <c r="D14" t="n">
-        <v>2896.6</v>
+        <v>2941.4</v>
       </c>
       <c r="E14" t="n">
-        <v>12368</v>
+        <v>12565</v>
       </c>
       <c r="F14" t="n">
         <v>8.9</v>
       </c>
       <c r="G14" t="n">
-        <v>2554</v>
+        <v>2594.7</v>
       </c>
       <c r="H14" t="n">
         <v>6</v>
       </c>
       <c r="I14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J14" t="n">
-        <v>25945</v>
+        <v>26352</v>
       </c>
       <c r="K14" t="n">
         <v>9.6</v>
@@ -7289,31 +7318,31 @@
         <v>32</v>
       </c>
       <c r="B15" t="n">
-        <v>8803</v>
+        <v>8943</v>
       </c>
       <c r="C15" t="n">
         <v>6.7</v>
       </c>
       <c r="D15" t="n">
-        <v>2604.3</v>
+        <v>2645.7</v>
       </c>
       <c r="E15" t="n">
-        <v>8393</v>
+        <v>8530</v>
       </c>
       <c r="F15" t="n">
         <v>6</v>
       </c>
       <c r="G15" t="n">
-        <v>2169.4</v>
+        <v>2204.8</v>
       </c>
       <c r="H15" t="n">
         <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J15" t="n">
-        <v>17199</v>
+        <v>17476</v>
       </c>
       <c r="K15" t="n">
         <v>6.4</v>
@@ -7324,34 +7353,34 @@
         <v>33</v>
       </c>
       <c r="B16" t="n">
-        <v>6573</v>
+        <v>6718</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="D16" t="n">
-        <v>3769.6</v>
+        <v>3852.8</v>
       </c>
       <c r="E16" t="n">
-        <v>10800</v>
+        <v>11044</v>
       </c>
       <c r="F16" t="n">
         <v>7.8</v>
       </c>
       <c r="G16" t="n">
-        <v>3845.7</v>
+        <v>3932.6</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="J16" t="n">
-        <v>17373</v>
+        <v>17763</v>
       </c>
       <c r="K16" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="17">
@@ -7366,7 +7395,7 @@
       </c>
       <c r="D17"/>
       <c r="E17" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -7379,7 +7408,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -7457,16 +7486,16 @@
         <v>41</v>
       </c>
       <c r="B8" t="n">
-        <v>12641</v>
+        <v>12882</v>
       </c>
       <c r="C8" t="n">
-        <v>1843.1</v>
+        <v>1878.3</v>
       </c>
       <c r="E8" t="n">
-        <v>4340</v>
+        <v>4091</v>
       </c>
       <c r="F8" t="n">
-        <v>632.8</v>
+        <v>596.5</v>
       </c>
     </row>
     <row r="9">
@@ -7474,16 +7503,16 @@
         <v>42</v>
       </c>
       <c r="B9" t="n">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="C9" t="n">
-        <v>2970</v>
+        <v>3001</v>
       </c>
       <c r="E9" t="n">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F9" t="n">
-        <v>756.4</v>
+        <v>700.6</v>
       </c>
     </row>
     <row r="10">
@@ -7491,16 +7520,16 @@
         <v>43</v>
       </c>
       <c r="B10" t="n">
-        <v>1238</v>
+        <v>1274</v>
       </c>
       <c r="C10" t="n">
-        <v>2232.8</v>
+        <v>2297.8</v>
       </c>
       <c r="E10" t="n">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F10" t="n">
-        <v>732.3</v>
+        <v>725</v>
       </c>
     </row>
     <row r="11">
@@ -7508,16 +7537,16 @@
         <v>44</v>
       </c>
       <c r="B11" t="n">
-        <v>22844</v>
+        <v>23177</v>
       </c>
       <c r="C11" t="n">
-        <v>2197.6</v>
+        <v>2229.7</v>
       </c>
       <c r="E11" t="n">
-        <v>7808</v>
+        <v>7127</v>
       </c>
       <c r="F11" t="n">
-        <v>751.1</v>
+        <v>685.6</v>
       </c>
     </row>
     <row r="12">
@@ -7525,16 +7554,16 @@
         <v>45</v>
       </c>
       <c r="B12" t="n">
-        <v>4706</v>
+        <v>4864</v>
       </c>
       <c r="C12" t="n">
-        <v>1625.7</v>
+        <v>1680.3</v>
       </c>
       <c r="E12" t="n">
-        <v>1591</v>
+        <v>1571</v>
       </c>
       <c r="F12" t="n">
-        <v>549.6</v>
+        <v>542.7</v>
       </c>
     </row>
     <row r="13">
@@ -7542,16 +7571,16 @@
         <v>46</v>
       </c>
       <c r="B13" t="n">
-        <v>4270</v>
+        <v>4372</v>
       </c>
       <c r="C13" t="n">
-        <v>2180.3</v>
+        <v>2232.4</v>
       </c>
       <c r="E13" t="n">
-        <v>1366</v>
+        <v>1358</v>
       </c>
       <c r="F13" t="n">
-        <v>697.5</v>
+        <v>693.4</v>
       </c>
     </row>
     <row r="14">
@@ -7559,16 +7588,16 @@
         <v>47</v>
       </c>
       <c r="B14" t="n">
-        <v>1009</v>
+        <v>1047</v>
       </c>
       <c r="C14" t="n">
-        <v>2604.1</v>
+        <v>2702.1</v>
       </c>
       <c r="E14" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="F14" t="n">
-        <v>996.2</v>
+        <v>978.1</v>
       </c>
     </row>
     <row r="15">
@@ -7576,16 +7605,16 @@
         <v>48</v>
       </c>
       <c r="B15" t="n">
-        <v>18118</v>
+        <v>18395</v>
       </c>
       <c r="C15" t="n">
-        <v>5630.5</v>
+        <v>5716.6</v>
       </c>
       <c r="E15" t="n">
-        <v>6910</v>
+        <v>6321</v>
       </c>
       <c r="F15" t="n">
-        <v>2147.4</v>
+        <v>1964.4</v>
       </c>
     </row>
     <row r="16">
@@ -7593,16 +7622,16 @@
         <v>49</v>
       </c>
       <c r="B16" t="n">
-        <v>35178</v>
+        <v>35696</v>
       </c>
       <c r="C16" t="n">
-        <v>6978</v>
+        <v>7080.7</v>
       </c>
       <c r="E16" t="n">
-        <v>11264</v>
+        <v>10482</v>
       </c>
       <c r="F16" t="n">
-        <v>2234.4</v>
+        <v>2079.2</v>
       </c>
     </row>
     <row r="17">
@@ -7610,16 +7639,16 @@
         <v>50</v>
       </c>
       <c r="B17" t="n">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="C17" t="n">
-        <v>1924.1</v>
+        <v>1938.9</v>
       </c>
       <c r="E17" t="n">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="F17" t="n">
-        <v>596.2</v>
+        <v>512.4</v>
       </c>
     </row>
     <row r="18">
@@ -7627,16 +7656,16 @@
         <v>51</v>
       </c>
       <c r="B18" t="n">
-        <v>4049</v>
+        <v>4145</v>
       </c>
       <c r="C18" t="n">
-        <v>2034.5</v>
+        <v>2082.7</v>
       </c>
       <c r="E18" t="n">
-        <v>1200</v>
+        <v>1171</v>
       </c>
       <c r="F18" t="n">
-        <v>603</v>
+        <v>588.4</v>
       </c>
     </row>
     <row r="19">
@@ -7644,16 +7673,16 @@
         <v>52</v>
       </c>
       <c r="B19" t="n">
-        <v>3416</v>
+        <v>3444</v>
       </c>
       <c r="C19" t="n">
-        <v>4642.3</v>
+        <v>4680.4</v>
       </c>
       <c r="E19" t="n">
-        <v>990</v>
+        <v>863</v>
       </c>
       <c r="F19" t="n">
-        <v>1345.4</v>
+        <v>1172.8</v>
       </c>
     </row>
     <row r="20">
@@ -7661,16 +7690,16 @@
         <v>53</v>
       </c>
       <c r="B20" t="n">
-        <v>8113</v>
+        <v>8314</v>
       </c>
       <c r="C20" t="n">
-        <v>1963.8</v>
+        <v>2012.5</v>
       </c>
       <c r="E20" t="n">
-        <v>2873</v>
+        <v>2786</v>
       </c>
       <c r="F20" t="n">
-        <v>695.4</v>
+        <v>674.4</v>
       </c>
     </row>
     <row r="21">
@@ -7678,16 +7707,16 @@
         <v>54</v>
       </c>
       <c r="B21" t="n">
-        <v>8453</v>
+        <v>8565</v>
       </c>
       <c r="C21" t="n">
-        <v>4789.3</v>
+        <v>4852.8</v>
       </c>
       <c r="E21" t="n">
-        <v>3129</v>
+        <v>2861</v>
       </c>
       <c r="F21" t="n">
-        <v>1772.8</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="22">
@@ -7695,16 +7724,16 @@
         <v>55</v>
       </c>
       <c r="B22" t="n">
-        <v>765</v>
+        <v>776</v>
       </c>
       <c r="C22" t="n">
-        <v>1775.5</v>
+        <v>1801</v>
       </c>
       <c r="E22" t="n">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F22" t="n">
-        <v>629</v>
+        <v>610.4</v>
       </c>
     </row>
     <row r="23">
@@ -7712,16 +7741,16 @@
         <v>56</v>
       </c>
       <c r="B23" t="n">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C23" t="n">
-        <v>1980</v>
+        <v>2003.7</v>
       </c>
       <c r="E23" t="n">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="F23" t="n">
-        <v>769.8</v>
+        <v>693.4</v>
       </c>
     </row>
     <row r="24">
@@ -7729,16 +7758,16 @@
         <v>57</v>
       </c>
       <c r="B24" t="n">
-        <v>13045</v>
+        <v>13365</v>
       </c>
       <c r="C24" t="n">
-        <v>2554.2</v>
+        <v>2616.8</v>
       </c>
       <c r="E24" t="n">
-        <v>4822</v>
+        <v>4447</v>
       </c>
       <c r="F24" t="n">
-        <v>944.1</v>
+        <v>870.7</v>
       </c>
     </row>
     <row r="25">
@@ -7746,16 +7775,16 @@
         <v>58</v>
       </c>
       <c r="B25" t="n">
-        <v>1323</v>
+        <v>1342</v>
       </c>
       <c r="C25" t="n">
-        <v>1606.6</v>
+        <v>1629.7</v>
       </c>
       <c r="E25" t="n">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="F25" t="n">
-        <v>642.4</v>
+        <v>610.8</v>
       </c>
     </row>
     <row r="26">
@@ -7763,16 +7792,16 @@
         <v>59</v>
       </c>
       <c r="B26" t="n">
-        <v>4656</v>
+        <v>4781</v>
       </c>
       <c r="C26" t="n">
-        <v>1691.6</v>
+        <v>1737</v>
       </c>
       <c r="E26" t="n">
-        <v>1783</v>
+        <v>1704</v>
       </c>
       <c r="F26" t="n">
-        <v>647.8</v>
+        <v>619.1</v>
       </c>
     </row>
     <row r="27">
@@ -7780,16 +7809,16 @@
         <v>60</v>
       </c>
       <c r="B27" t="n">
-        <v>4335</v>
+        <v>4385</v>
       </c>
       <c r="C27" t="n">
-        <v>2701.3</v>
+        <v>2732.4</v>
       </c>
       <c r="E27" t="n">
-        <v>858</v>
+        <v>759</v>
       </c>
       <c r="F27" t="n">
-        <v>534.6</v>
+        <v>473</v>
       </c>
     </row>
     <row r="28">
@@ -7797,16 +7826,16 @@
         <v>61</v>
       </c>
       <c r="B28" t="n">
-        <v>5018</v>
+        <v>5121</v>
       </c>
       <c r="C28" t="n">
-        <v>1795</v>
+        <v>1831.9</v>
       </c>
       <c r="E28" t="n">
-        <v>1810</v>
+        <v>1674</v>
       </c>
       <c r="F28" t="n">
-        <v>647.5</v>
+        <v>598.8</v>
       </c>
     </row>
     <row r="29">
@@ -7814,16 +7843,16 @@
         <v>62</v>
       </c>
       <c r="B29" t="n">
-        <v>12542</v>
+        <v>12746</v>
       </c>
       <c r="C29" t="n">
-        <v>3568.2</v>
+        <v>3626.3</v>
       </c>
       <c r="E29" t="n">
-        <v>4300</v>
+        <v>4011</v>
       </c>
       <c r="F29" t="n">
-        <v>1223.4</v>
+        <v>1141.1</v>
       </c>
     </row>
     <row r="30">
@@ -7831,16 +7860,16 @@
         <v>63</v>
       </c>
       <c r="B30" t="n">
-        <v>712</v>
+        <v>739</v>
       </c>
       <c r="C30" t="n">
-        <v>1939.9</v>
+        <v>2013.5</v>
       </c>
       <c r="E30" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F30" t="n">
-        <v>615.8</v>
+        <v>621.2</v>
       </c>
     </row>
     <row r="31">
@@ -7848,16 +7877,16 @@
         <v>64</v>
       </c>
       <c r="B31" t="n">
-        <v>42709</v>
+        <v>43357</v>
       </c>
       <c r="C31" t="n">
-        <v>5304.8</v>
+        <v>5385.3</v>
       </c>
       <c r="E31" t="n">
-        <v>14722</v>
+        <v>13753</v>
       </c>
       <c r="F31" t="n">
-        <v>1828.6</v>
+        <v>1708.2</v>
       </c>
     </row>
     <row r="32">
@@ -7865,16 +7894,16 @@
         <v>65</v>
       </c>
       <c r="B32" t="n">
-        <v>20049</v>
+        <v>20280</v>
       </c>
       <c r="C32" t="n">
-        <v>5802.5</v>
+        <v>5869.3</v>
       </c>
       <c r="E32" t="n">
-        <v>5701</v>
+        <v>5084</v>
       </c>
       <c r="F32" t="n">
-        <v>1650</v>
+        <v>1471.4</v>
       </c>
     </row>
     <row r="33">
@@ -7882,16 +7911,16 @@
         <v>66</v>
       </c>
       <c r="B33" t="n">
-        <v>2595</v>
+        <v>2654</v>
       </c>
       <c r="C33" t="n">
-        <v>2033</v>
+        <v>2079.3</v>
       </c>
       <c r="E33" t="n">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="F33" t="n">
-        <v>594.6</v>
+        <v>592.3</v>
       </c>
     </row>
     <row r="34">
@@ -7899,16 +7928,16 @@
         <v>67</v>
       </c>
       <c r="B34" t="n">
-        <v>36179</v>
+        <v>36782</v>
       </c>
       <c r="C34" t="n">
-        <v>2350.4</v>
+        <v>2389.6</v>
       </c>
       <c r="E34" t="n">
-        <v>10871</v>
+        <v>10416</v>
       </c>
       <c r="F34" t="n">
-        <v>706.2</v>
+        <v>676.7</v>
       </c>
     </row>
     <row r="35">
@@ -7916,16 +7945,16 @@
         <v>68</v>
       </c>
       <c r="B35" t="n">
-        <v>269974</v>
+        <v>274534</v>
       </c>
       <c r="C35" t="n">
-        <v>3123</v>
+        <v>3175.7</v>
       </c>
       <c r="E35" t="n">
-        <v>89571</v>
+        <v>83594</v>
       </c>
       <c r="F35" t="n">
-        <v>1036.1</v>
+        <v>967</v>
       </c>
     </row>
     <row r="37">
@@ -8007,22 +8036,22 @@
         <v>48</v>
       </c>
       <c r="C8" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F8" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
         <v>10.7</v>
       </c>
       <c r="H8" t="n">
-        <v>9.1</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="9">
@@ -8030,25 +8059,25 @@
         <v>26</v>
       </c>
       <c r="B9" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F9" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="G9" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>9.2</v>
       </c>
     </row>
     <row r="10">
@@ -8056,25 +8085,25 @@
         <v>27</v>
       </c>
       <c r="B10" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C10" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="F10" t="n">
-        <v>23.9</v>
+        <v>24.4</v>
       </c>
       <c r="G10" t="n">
-        <v>28.9</v>
+        <v>29.2</v>
       </c>
       <c r="H10" t="n">
-        <v>18.7</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="11">
@@ -8082,25 +8111,25 @@
         <v>28</v>
       </c>
       <c r="B11" t="n">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C11" t="n">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="F11" t="n">
-        <v>26.3</v>
+        <v>26.8</v>
       </c>
       <c r="G11" t="n">
-        <v>27.9</v>
+        <v>28.6</v>
       </c>
       <c r="H11" t="n">
-        <v>24.7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
@@ -8108,25 +8137,25 @@
         <v>29</v>
       </c>
       <c r="B12" t="n">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="C12" t="n">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>617</v>
+        <v>631</v>
       </c>
       <c r="F12" t="n">
-        <v>51.3</v>
+        <v>52.4</v>
       </c>
       <c r="G12" t="n">
-        <v>62.4</v>
+        <v>64.3</v>
       </c>
       <c r="H12" t="n">
-        <v>39.9</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="13">
@@ -8134,25 +8163,25 @@
         <v>30</v>
       </c>
       <c r="B13" t="n">
-        <v>862</v>
+        <v>880</v>
       </c>
       <c r="C13" t="n">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1369</v>
+        <v>1401</v>
       </c>
       <c r="F13" t="n">
-        <v>105.4</v>
+        <v>107.9</v>
       </c>
       <c r="G13" t="n">
-        <v>131.7</v>
+        <v>134.5</v>
       </c>
       <c r="H13" t="n">
-        <v>78.7</v>
+        <v>80.8</v>
       </c>
     </row>
     <row r="14">
@@ -8160,25 +8189,25 @@
         <v>31</v>
       </c>
       <c r="B14" t="n">
-        <v>1247</v>
+        <v>1283</v>
       </c>
       <c r="C14" t="n">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="D14" t="n">
         <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>1880</v>
+        <v>1926</v>
       </c>
       <c r="F14" t="n">
-        <v>197.3</v>
+        <v>202.1</v>
       </c>
       <c r="G14" t="n">
-        <v>266.2</v>
+        <v>273.8</v>
       </c>
       <c r="H14" t="n">
-        <v>130.3</v>
+        <v>132.4</v>
       </c>
     </row>
     <row r="15">
@@ -8186,25 +8215,25 @@
         <v>32</v>
       </c>
       <c r="B15" t="n">
-        <v>1662</v>
+        <v>1711</v>
       </c>
       <c r="C15" t="n">
-        <v>1089</v>
+        <v>1122</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>2751</v>
+        <v>2833</v>
       </c>
       <c r="F15" t="n">
-        <v>379.5</v>
+        <v>390.8</v>
       </c>
       <c r="G15" t="n">
-        <v>491.7</v>
+        <v>506.2</v>
       </c>
       <c r="H15" t="n">
-        <v>281.5</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16">
@@ -8212,25 +8241,25 @@
         <v>33</v>
       </c>
       <c r="B16" t="n">
-        <v>1756</v>
+        <v>1823</v>
       </c>
       <c r="C16" t="n">
-        <v>1654</v>
+        <v>1706</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>3410</v>
+        <v>3529</v>
       </c>
       <c r="F16" t="n">
-        <v>749.1</v>
+        <v>775.3</v>
       </c>
       <c r="G16" t="n">
-        <v>1007.1</v>
+        <v>1045.5</v>
       </c>
       <c r="H16" t="n">
-        <v>589</v>
+        <v>607.5</v>
       </c>
     </row>
     <row r="17">
@@ -8431,7 +8460,7 @@
         <v>30</v>
       </c>
       <c r="B13" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" t="n">
         <v>16</v>
@@ -8440,13 +8469,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F13" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="G13" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="H13" t="n">
         <v>2.5</v>
@@ -8457,25 +8486,25 @@
         <v>31</v>
       </c>
       <c r="B14" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C14" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F14" t="n">
-        <v>21.3</v>
+        <v>21.8</v>
       </c>
       <c r="G14" t="n">
-        <v>32.4</v>
+        <v>33.3</v>
       </c>
       <c r="H14" t="n">
-        <v>10.3</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="15">
@@ -8483,25 +8512,25 @@
         <v>32</v>
       </c>
       <c r="B15" t="n">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="C15" t="n">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>651</v>
+        <v>679</v>
       </c>
       <c r="F15" t="n">
-        <v>89.8</v>
+        <v>93.7</v>
       </c>
       <c r="G15" t="n">
-        <v>128.7</v>
+        <v>134.3</v>
       </c>
       <c r="H15" t="n">
-        <v>55.8</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="16">
@@ -8509,25 +8538,25 @@
         <v>33</v>
       </c>
       <c r="B16" t="n">
-        <v>1148</v>
+        <v>1198</v>
       </c>
       <c r="C16" t="n">
-        <v>1078</v>
+        <v>1136</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>2226</v>
+        <v>2334</v>
       </c>
       <c r="F16" t="n">
-        <v>489</v>
+        <v>512.7</v>
       </c>
       <c r="G16" t="n">
-        <v>658.4</v>
+        <v>687.1</v>
       </c>
       <c r="H16" t="n">
-        <v>383.9</v>
+        <v>404.5</v>
       </c>
     </row>
     <row r="17">
@@ -8625,7 +8654,7 @@
         <v>41</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44147</v>
+        <v>44151</v>
       </c>
       <c r="C8" t="s">
         <v>94</v>
@@ -8637,13 +8666,13 @@
         <v>96</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>242.037194993038</v>
+        <v>341.622378234149</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>106.729654659581</v>
+        <v>105.854821424666</v>
       </c>
     </row>
     <row r="9">
@@ -8743,7 +8772,7 @@
         <v>46</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44149</v>
+        <v>44151</v>
       </c>
       <c r="C13" t="s">
         <v>102</v>
@@ -8752,16 +8781,16 @@
         <v>103</v>
       </c>
       <c r="E13" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>494.270950348236</v>
+        <v>504.993770552072</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>331.386205347113</v>
+        <v>332.918036804804</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0</v>
+        <v>16.339535548702</v>
       </c>
     </row>
     <row r="14">
@@ -8772,10 +8801,10 @@
         <v>44147</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E14" t="s">
         <v>95</v>
@@ -8818,13 +8847,13 @@
         <v>44147</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>985.860733781897</v>
@@ -8844,10 +8873,10 @@
         <v>44147</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E17" t="s">
         <v>95</v>
@@ -8870,13 +8899,13 @@
         <v>44147</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>304.992940443471</v>
@@ -8896,10 +8925,10 @@
         <v>44147</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E19" t="s">
         <v>95</v>
@@ -8922,13 +8951,13 @@
         <v>44147</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>532.532920216886</v>
@@ -8948,13 +8977,13 @@
         <v>44147</v>
       </c>
       <c r="C21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D21" t="s">
         <v>98</v>
       </c>
       <c r="E21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>866.875169975523</v>
@@ -8974,10 +9003,10 @@
         <v>44150</v>
       </c>
       <c r="C22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E22" t="s">
         <v>95</v>
@@ -8997,22 +9026,22 @@
         <v>56</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44147</v>
+        <v>44151</v>
       </c>
       <c r="C23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E23" t="s">
         <v>95</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>392.828895333509</v>
+        <v>406.011073029264</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>714.474031109939</v>
+        <v>804.112839441076</v>
       </c>
       <c r="H23" s="2" t="n">
         <v>0</v>
@@ -9046,13 +9075,13 @@
         <v>44147</v>
       </c>
       <c r="C25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F25" s="2" t="n">
         <v>429.882935833293</v>
@@ -9072,13 +9101,13 @@
         <v>44147</v>
       </c>
       <c r="C26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F26" s="2" t="n">
         <v>480.659189745937</v>
@@ -9098,13 +9127,13 @@
         <v>44148</v>
       </c>
       <c r="C27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D27" t="s">
         <v>95</v>
       </c>
       <c r="E27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F27" s="2" t="n">
         <v>497.881355932203</v>
@@ -9124,10 +9153,10 @@
         <v>44147</v>
       </c>
       <c r="C28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E28" t="s">
         <v>95</v>
@@ -9150,13 +9179,13 @@
         <v>44147</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="D29" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E29" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F29" s="2" t="n">
         <v>472.273827779374</v>
@@ -9176,10 +9205,10 @@
         <v>44147</v>
       </c>
       <c r="C30" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D30" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E30" t="s">
         <v>95</v>
@@ -9202,13 +9231,13 @@
         <v>44148</v>
       </c>
       <c r="C31" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D31" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E31" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F31" s="2" t="n">
         <v>1000.87194353979</v>
@@ -9228,7 +9257,7 @@
         <v>44147</v>
       </c>
       <c r="C32" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D32" t="s">
         <v>95</v>
@@ -9254,13 +9283,13 @@
         <v>44147</v>
       </c>
       <c r="C33" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D33" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E33" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F33" s="2" t="n">
         <v>354.115416555679</v>
@@ -9280,13 +9309,13 @@
         <v>44147</v>
       </c>
       <c r="C34" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D34" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E34" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F34" s="2" t="n">
         <v>561.433142226048</v>
